--- a/output/service.go_ms.json/friend.result.xlsx
+++ b/output/service.go_ms.json/friend.result.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
